--- a/data/trans_orig/Q61A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q61A-Clase-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>15.9955713092063</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18.55348669511582</v>
+        <v>18.55348669511583</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>17.49983665975767</v>
@@ -693,7 +693,7 @@
         <v>20.1083529542095</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>19.75607414767046</v>
+        <v>19.75607414767047</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.922439983936135</v>
+        <v>2.985927186084237</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.93778059391616</v>
+        <v>11.96847799480723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11.61948535536439</v>
+        <v>12.21386402421536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.40256777562712</v>
+        <v>10.44999669489631</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.789170781918451</v>
+        <v>4.813162399670802</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.389042847705998</v>
+        <v>9.681269805286465</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>17.90879108988291</v>
+        <v>17.86393247236702</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>14.61361342050625</v>
+        <v>13.66516531899757</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.389189770204458</v>
+        <v>4.29851329589532</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11.28618303868724</v>
+        <v>11.71298502153909</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16.13988033322714</v>
+        <v>16.43850550081921</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>14.53464541144121</v>
+        <v>13.98704968194885</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.464115848222023</v>
+        <v>6.433921799038661</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.24161538103361</v>
+        <v>19.08983282732631</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21.34348718508483</v>
+        <v>22.53289004655569</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32.50044795366051</v>
+        <v>30.88996799739524</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>54.29045113280229</v>
+        <v>66.05168924294534</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>15.71729177215205</v>
+        <v>16.14729644061836</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>32.65090976360568</v>
+        <v>32.88850086496771</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>32.24123497159463</v>
+        <v>31.03114511690619</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>29.23372610437372</v>
+        <v>37.77694697541812</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16.28449647311785</v>
+        <v>16.31380825380768</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25.61595930256847</v>
+        <v>25.98268231555899</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>27.65189327201834</v>
+        <v>26.85918658735826</v>
       </c>
     </row>
     <row r="7">
@@ -829,7 +829,7 @@
         <v>24.24407004293083</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>26.13452713209589</v>
+        <v>26.13452713209588</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>4.032059328423347</v>
+        <v>4.135423070114941</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.129479635269544</v>
+        <v>9.74155786210086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17.06890489071694</v>
+        <v>17.46961064226142</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11.8616625017005</v>
+        <v>12.47915249152195</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>4.028204675331956</v>
+        <v>3.940091228060866</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>16.26939297603387</v>
+        <v>16.49220031904256</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>21.09988680998814</v>
+        <v>21.38609601656557</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>21.62465968934644</v>
+        <v>21.0768697484704</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>4.806279173646187</v>
+        <v>4.765959997532775</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14.39271116751935</v>
+        <v>14.5076821345184</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21.02710003707036</v>
+        <v>21.06834399877763</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>19.70402525773983</v>
+        <v>19.6423671012567</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>60.29467304955199</v>
+        <v>60.87487340267915</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.40904641846936</v>
+        <v>19.11502904497149</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26.63769911646532</v>
+        <v>27.53579240672971</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29.73484663544948</v>
+        <v>30.5285037772811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>15.81372139200476</v>
+        <v>15.13847283242381</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>25.36202443238169</v>
+        <v>26.63449649072244</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>30.60233391598207</v>
+        <v>30.32782129066869</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>41.22747798837207</v>
+        <v>41.43186052173275</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>20.82957780785633</v>
+        <v>17.82862224950131</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>21.40963501208672</v>
+        <v>21.29230524815623</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28.08619613157591</v>
+        <v>27.92283574452401</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>34.77970736067456</v>
+        <v>34.52452157532142</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.859617268211952</v>
+        <v>2.914671582296611</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>17.50637087418879</v>
+        <v>17.51248742160773</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19.83951155247545</v>
+        <v>19.81752547189436</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22.84748544061202</v>
+        <v>23.2022475626033</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.967792925060969</v>
+        <v>3.089054581072316</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.05656263208806</v>
+        <v>20.75471182733781</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>29.00821190205858</v>
+        <v>29.12208290890618</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>25.39205048166045</v>
+        <v>26.36851326105554</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.388384720170012</v>
+        <v>3.471836035755137</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18.60031306633338</v>
+        <v>18.79442853364088</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23.22390270129903</v>
+        <v>22.69448668944585</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>26.89572332515029</v>
+        <v>26.71672044673546</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.314224973004553</v>
+        <v>9.236549933332928</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>29.0456087021062</v>
+        <v>28.15015835896963</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>28.7708133894544</v>
+        <v>28.90732970717504</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47.8140344036315</v>
+        <v>48.47235583528571</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.765715732076861</v>
+        <v>8.96703127747608</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>33.37081163107892</v>
+        <v>32.77160606435027</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>61.81118904997793</v>
+        <v>62.4774181057559</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>58.76221899926034</v>
+        <v>58.80646951905951</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.994221370613495</v>
+        <v>7.818157592985822</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27.91351382760535</v>
+        <v>27.97775082975292</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32.4780471886452</v>
+        <v>32.36835147063059</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>47.78526366151005</v>
+        <v>47.71473100803208</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>21.87073082492081</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>24.03938734089707</v>
+        <v>24.03938734089706</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>6.391496868176891</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.676805688967187</v>
+        <v>4.657484641743869</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>11.5242662694901</v>
+        <v>11.35904116385185</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18.06583946283387</v>
+        <v>18.24210952289001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14.54880562564865</v>
+        <v>14.41246043654984</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>5.351197962082876</v>
+        <v>5.513114252726731</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>16.64946085757684</v>
+        <v>16.71953718101944</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>18.63608585437994</v>
+        <v>18.56781920207008</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>19.10536654774348</v>
+        <v>19.2279583317053</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>5.352853433640669</v>
+        <v>5.38229905678542</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14.12103523683555</v>
+        <v>14.01015049722367</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19.03479939508484</v>
+        <v>19.2101610500042</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.82183347377225</v>
+        <v>18.07497098875341</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.45929639148182</v>
+        <v>7.508690196983002</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.31237359562211</v>
+        <v>14.18293073051396</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>23.39342716764926</v>
+        <v>23.92647845592851</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23.33932118384597</v>
+        <v>23.90209985496942</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>11.0339779884106</v>
+        <v>10.90854012085745</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>26.26392419198566</v>
+        <v>26.30769489049784</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>26.38240863343661</v>
+        <v>26.18943688046505</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>32.60779723584817</v>
+        <v>31.46491095240927</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>8.021653232842283</v>
+        <v>8.282295375789374</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18.20237397351874</v>
+        <v>18.11654271375057</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>23.38660689840755</v>
+        <v>23.77065688639388</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>26.02827139733171</v>
+        <v>26.15599744365854</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.058448191414167</v>
+        <v>4.285218319864847</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>12.05400906314046</v>
+        <v>12.10978625407487</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13.23379912323162</v>
+        <v>13.32662223518521</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11.20204756741673</v>
+        <v>11.37577030887396</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.168959521870865</v>
+        <v>6.148049104305987</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>12.91806699613537</v>
+        <v>12.51460708611952</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.795780068439</v>
+        <v>16.51382816560335</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>16.4650670455503</v>
+        <v>16.72389889488695</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.625482316652741</v>
+        <v>5.624228826003107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12.7901206471266</v>
+        <v>12.80355541460079</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15.90853465755923</v>
+        <v>15.81557452636706</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>15.77378484110886</v>
+        <v>15.74316105331953</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.692191157326459</v>
+        <v>7.566179760369858</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.49229610266483</v>
+        <v>16.28758282927028</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19.40190388350033</v>
+        <v>19.28608258125469</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.83594560758609</v>
+        <v>20.91338095554172</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.125360200252112</v>
+        <v>9.222790873144099</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>17.99363113185267</v>
+        <v>17.7216415851643</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>24.69675383155091</v>
+        <v>24.44851838929964</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>26.33987939542481</v>
+        <v>26.26985524164485</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.909739568021456</v>
+        <v>7.861789847581484</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16.19505298451094</v>
+        <v>16.26390804397089</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>20.93338343486733</v>
+        <v>20.83684550948811</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>23.26121221940937</v>
+        <v>22.86791226543824</v>
       </c>
     </row>
     <row r="19">
@@ -1389,7 +1389,7 @@
       <c r="L20" s="5" t="inlineStr"/>
       <c r="M20" s="5" t="inlineStr"/>
       <c r="N20" s="5" t="n">
-        <v>7.826901754693287</v>
+        <v>7.978109480850319</v>
       </c>
     </row>
     <row r="21">
@@ -1413,7 +1413,7 @@
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="n">
-        <v>16.60361706490123</v>
+        <v>16.87477292395657</v>
       </c>
     </row>
     <row r="22">
@@ -1461,7 +1461,7 @@
         <v>21.11206048324177</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>21.71491670055012</v>
+        <v>21.71491670055011</v>
       </c>
     </row>
     <row r="23">
@@ -1472,40 +1472,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.089061163832629</v>
+        <v>5.023292403079854</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>13.78721832113334</v>
+        <v>13.76960359460213</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17.99768458502254</v>
+        <v>18.09193604689869</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16.76682369543964</v>
+        <v>16.71424395279858</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>6.206637117195412</v>
+        <v>6.229717429485234</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.33764490731746</v>
+        <v>16.4300368162188</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>20.66271396868079</v>
+        <v>20.75162596118223</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>20.56279308093012</v>
+        <v>20.58027264989918</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.973077928389648</v>
+        <v>5.921954389425972</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15.2664773101985</v>
+        <v>15.21308482675411</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19.70791717425502</v>
+        <v>19.72955349988873</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>19.74006231502801</v>
+        <v>19.32727779389814</v>
       </c>
     </row>
     <row r="24">
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>8.308414157925231</v>
+        <v>8.569918593295595</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.58295162873127</v>
+        <v>16.93177684667784</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>21.37410181307352</v>
+        <v>21.42682816062563</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22.7464309488563</v>
+        <v>23.00328007890143</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.00145891871105</v>
+        <v>10.99876297603831</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.67162350612848</v>
+        <v>20.6143978051199</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>25.01118771467042</v>
+        <v>25.38544080170061</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>27.14067984807771</v>
+        <v>27.67310094480927</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.710525281782676</v>
+        <v>8.78283494484228</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17.62793364761281</v>
+        <v>17.71276665913414</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22.59109651474337</v>
+        <v>22.59166687278503</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>24.21170757993674</v>
+        <v>24.04163093917279</v>
       </c>
     </row>
     <row r="25">
